--- a/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
+++ b/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
@@ -14,26 +14,26 @@
   <definedNames>
     <definedName name="aclanalyser" localSheetId="2">'3rd Party'!$A$57</definedName>
     <definedName name="AgentOWL" localSheetId="2">'3rd Party'!$A$59</definedName>
-    <definedName name="android" localSheetId="0">'JADE 4.0.1'!$A$32</definedName>
-    <definedName name="applets" localSheetId="0">'JADE 4.0.1'!$A$65</definedName>
-    <definedName name="ASCML" localSheetId="0">'JADE 4.0.1'!$A$39</definedName>
-    <definedName name="benchmark" localSheetId="0">'JADE 4.0.1'!$A$63</definedName>
-    <definedName name="DSC" localSheetId="0">'JADE 4.0.1'!$A$29</definedName>
+    <definedName name="android" localSheetId="0">'JADE 4.0.1'!$B$32</definedName>
+    <definedName name="applets" localSheetId="0">'JADE 4.0.1'!$B$65</definedName>
+    <definedName name="ASCML" localSheetId="0">'JADE 4.0.1'!$B$39</definedName>
+    <definedName name="benchmark" localSheetId="0">'JADE 4.0.1'!$B$63</definedName>
+    <definedName name="DSC" localSheetId="0">'JADE 4.0.1'!$B$29</definedName>
     <definedName name="jade4spring" localSheetId="2">'3rd Party'!$A$5</definedName>
     <definedName name="JADEMX" localSheetId="2">'3rd Party'!$A$12</definedName>
     <definedName name="JADEOWLCodec" localSheetId="2">'3rd Party'!$A$6</definedName>
     <definedName name="jmsmtp" localSheetId="2">'3rd Party'!$A$44</definedName>
-    <definedName name="LEAP" localSheetId="0">'JADE 4.0.1'!$A$19</definedName>
+    <definedName name="LEAP" localSheetId="0">'JADE 4.0.1'!$B$19</definedName>
     <definedName name="Log4JADE" localSheetId="2">'3rd Party'!$A$8</definedName>
-    <definedName name="MISC" localSheetId="0">'JADE 4.0.1'!$A$27</definedName>
-    <definedName name="OSGI" localSheetId="0">'JADE 4.0.1'!$A$21</definedName>
-    <definedName name="semantics" localSheetId="0">'JADE 4.0.1'!$A$30</definedName>
+    <definedName name="MISC" localSheetId="0">'JADE 4.0.1'!$B$27</definedName>
+    <definedName name="OSGI" localSheetId="0">'JADE 4.0.1'!$B$21</definedName>
+    <definedName name="semantics" localSheetId="0">'JADE 4.0.1'!$B$30</definedName>
     <definedName name="servlet" localSheetId="2">'3rd Party'!$A$76</definedName>
-    <definedName name="testSuite" localSheetId="0">'JADE 4.0.1'!$A$59</definedName>
+    <definedName name="testSuite" localSheetId="0">'JADE 4.0.1'!$B$59</definedName>
     <definedName name="Untraceability" localSheetId="2">'3rd Party'!$A$50</definedName>
-    <definedName name="WSDC" localSheetId="0">'JADE 4.0.1'!$A$25</definedName>
-    <definedName name="WSIG" localSheetId="0">'JADE 4.0.1'!$A$23</definedName>
-    <definedName name="XMLCodec" localSheetId="0">'JADE 4.0.1'!$A$55</definedName>
+    <definedName name="WSDC" localSheetId="0">'JADE 4.0.1'!$B$25</definedName>
+    <definedName name="WSIG" localSheetId="0">'JADE 4.0.1'!$B$23</definedName>
+    <definedName name="XMLCodec" localSheetId="0">'JADE 4.0.1'!$B$55</definedName>
     <definedName name="xmpp" localSheetId="2">'3rd Party'!$A$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="412">
   <si>
     <t>JADE</t>
   </si>
@@ -1150,6 +1150,179 @@
   <si>
     <t>JADE 3.5
 Feb 2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-ascml</t>
+  </si>
+  <si>
+    <t>jade-addon-persistence</t>
+  </si>
+  <si>
+    <t>jade-osgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
+    <t>wsig</t>
+  </si>
+  <si>
+    <t>wsdc</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>dsc</t>
+  </si>
+  <si>
+    <t>semantics</t>
+  </si>
+  <si>
+    <t>java-sniffer</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>jadesharp</t>
+  </si>
+  <si>
+    <t>persistence</t>
+  </si>
+  <si>
+    <t>ascml</t>
+  </si>
+  <si>
+    <t>orbacus-mtp</t>
+  </si>
+  <si>
+    <t>xml-codec</t>
+  </si>
+  <si>
+    <t>rdf-codec</t>
+  </si>
+  <si>
+    <t>bechmark</t>
+  </si>
+  <si>
+    <t>jadeapplets</t>
+  </si>
+  <si>
+    <t>osgi</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>trusted-agents</t>
+  </si>
+  <si>
+    <t>ontology-beangenerator-</t>
+  </si>
+  <si>
+    <t>fipa-xml-aclcodec</t>
+  </si>
+  <si>
+    <t>fipa-bit-efficient-aclcodec</t>
+  </si>
+  <si>
+    <t>fipa-bit-efficient-envelope-codec</t>
+  </si>
+  <si>
+    <t>cascom-http-mtp</t>
+  </si>
+  <si>
+    <t>test-suite-framework</t>
+  </si>
+  <si>
+    <t>jsp-tag-library</t>
+  </si>
+  <si>
+    <t>jade2xback</t>
+  </si>
+  <si>
+    <t>jade-addon-leap</t>
+  </si>
+  <si>
+    <t>jade-addon-osgi</t>
+  </si>
+  <si>
+    <t>jade-addon-security</t>
+  </si>
+  <si>
+    <t>jade-addon-trusted-agents</t>
+  </si>
+  <si>
+    <t>jade-addon-ontology-beangenerator-</t>
+  </si>
+  <si>
+    <t>jade-addon-jadesharp</t>
+  </si>
+  <si>
+    <t>jade-addon-orbacus-mtp</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-xml-aclcodec</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-bit-efficient-aclcodec</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-cascom-http-mtp</t>
+  </si>
+  <si>
+    <t>jade-addon-xml-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-rdf-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-test-suite-framework</t>
+  </si>
+  <si>
+    <t>jade-addon-bechmark</t>
+  </si>
+  <si>
+    <t>jade-addon-jadeapplets</t>
+  </si>
+  <si>
+    <t>jade-addon-jsp-tag-library</t>
+  </si>
+  <si>
+    <t>jade-addon-jade2xback</t>
+  </si>
+  <si>
+    <t>jade-addon-wsig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-wsdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-miscellaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-dsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-semantics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-java-sniffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,7 +1330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1216,6 +1389,13 @@
       <color rgb="FF003366"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="3"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1283,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,6 +1539,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1660,220 +1845,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="23.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="17.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="17"/>
+    <col min="8" max="8" width="23.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1885,771 +2074,1045 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="25.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="25.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="str">
+        <f>"jade-addon-"&amp;B3</f>
+        <v>jade-addon-leap</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="str">
+        <f t="shared" ref="A4:A29" si="0">"jade-addon-"&amp;B4</f>
+        <v>jade-addon-osgi</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="str">
+        <f>"jade-addon-"&amp;B5</f>
+        <v>jade-addon-wsig</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="I5" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-wsdc</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-miscellaneous</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="11">
+      <c r="E7" s="11">
         <v>40643</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="I7" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-dsc</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-semantics</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-android</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-java-sniffer</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-security</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="I12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-trusted-agents</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="4">
+      <c r="E13" s="4">
         <v>40673</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="I13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-ontology-beangenerator-</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E14" s="4">
         <v>40701</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="I14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-jadesharp</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="4">
+      <c r="E15" s="4">
         <v>40609</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="I15" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-persistence</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-ascml</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E17" s="4">
         <v>40608</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="I17" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-orbacus-mtp</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-fipa-xml-aclcodec</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="I19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-fipa-bit-efficient-aclcodec</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="I20" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-fipa-bit-efficient-envelope-codec</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="I21" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-cascom-http-mtp</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="I22" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-xml-codec</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="I23" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-rdf-codec</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="4">
+      <c r="E24" s="4">
         <v>40880</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="I24" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-test-suite-framework</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="I25" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-bechmark</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="I26" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-jadeapplets</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="I27" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-jsp-tag-library</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="I28" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-addon-jade2xback</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="I29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
+++ b/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="17205" windowHeight="11475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JADE 4.0.1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <definedName name="xmpp" localSheetId="2">'3rd Party'!$A$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1250,79 +1251,80 @@
     <t>jade-addon-osgi</t>
   </si>
   <si>
+    <t>jade-addon-trusted-agents</t>
+  </si>
+  <si>
+    <t>jade-addon-ontology-beangenerator-</t>
+  </si>
+  <si>
+    <t>jade-addon-jadesharp</t>
+  </si>
+  <si>
+    <t>jade-addon-orbacus-mtp</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-xml-aclcodec</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-bit-efficient-aclcodec</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-cascom-http-mtp</t>
+  </si>
+  <si>
+    <t>jade-addon-xml-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-rdf-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-test-suite-framework</t>
+  </si>
+  <si>
+    <t>jade-addon-bechmark</t>
+  </si>
+  <si>
+    <t>jade-addon-jadeapplets</t>
+  </si>
+  <si>
+    <t>jade-addon-jsp-tag-library</t>
+  </si>
+  <si>
+    <t>jade-addon-jade2xback</t>
+  </si>
+  <si>
+    <t>jade-addon-wsig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-wsdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-miscellaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-dsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-semantics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-java-sniffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jade-addon-security</t>
-  </si>
-  <si>
-    <t>jade-addon-trusted-agents</t>
-  </si>
-  <si>
-    <t>jade-addon-ontology-beangenerator-</t>
-  </si>
-  <si>
-    <t>jade-addon-jadesharp</t>
-  </si>
-  <si>
-    <t>jade-addon-orbacus-mtp</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-xml-aclcodec</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-bit-efficient-aclcodec</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-cascom-http-mtp</t>
-  </si>
-  <si>
-    <t>jade-addon-xml-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-rdf-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-test-suite-framework</t>
-  </si>
-  <si>
-    <t>jade-addon-bechmark</t>
-  </si>
-  <si>
-    <t>jade-addon-jadeapplets</t>
-  </si>
-  <si>
-    <t>jade-addon-jsp-tag-library</t>
-  </si>
-  <si>
-    <t>jade-addon-jade2xback</t>
-  </si>
-  <si>
-    <t>jade-addon-wsig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-wsdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-miscellaneous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-dsc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-semantics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-java-sniffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2076,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2231,7 @@
         <v>134</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>152</v>
@@ -2266,7 +2268,7 @@
         <v>135</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>341</v>
@@ -2303,7 +2305,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>156</v>
@@ -2340,7 +2342,7 @@
         <v>344</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>157</v>
@@ -2375,7 +2377,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>158</v>
@@ -2412,7 +2414,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>160</v>
@@ -2449,7 +2451,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>162</v>
@@ -2483,8 +2485,8 @@
       <c r="H12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>389</v>
+      <c r="I12" s="28" t="s">
+        <v>411</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>163</v>
@@ -2519,7 +2521,7 @@
         <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>167</v>
@@ -2554,7 +2556,7 @@
         <v>86</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>166</v>
@@ -2589,7 +2591,7 @@
         <v>89</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>168</v>
@@ -2698,7 +2700,7 @@
         <v>140</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>174</v>
@@ -2735,7 +2737,7 @@
         <v>137</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>175</v>
@@ -2774,7 +2776,7 @@
         <v>138</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>177</v>
@@ -2811,7 +2813,7 @@
         <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>179</v>
@@ -2846,7 +2848,7 @@
         <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>180</v>
@@ -2881,7 +2883,7 @@
         <v>143</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>182</v>
@@ -2918,7 +2920,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>184</v>
@@ -2953,7 +2955,7 @@
         <v>144</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>185</v>
@@ -2988,7 +2990,7 @@
         <v>145</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>186</v>
@@ -3025,7 +3027,7 @@
         <v>146</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>189</v>
@@ -3062,7 +3064,7 @@
         <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>190</v>
@@ -3099,7 +3101,7 @@
         <v>129</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>192</v>

--- a/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
+++ b/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="17205" windowHeight="11475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17205" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JADE 4.0.1" sheetId="1" r:id="rId1"/>
@@ -1251,80 +1251,81 @@
     <t>jade-addon-osgi</t>
   </si>
   <si>
+    <t>jade-addon-ontology-beangenerator-</t>
+  </si>
+  <si>
+    <t>jade-addon-jadesharp</t>
+  </si>
+  <si>
+    <t>jade-addon-orbacus-mtp</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-xml-aclcodec</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-bit-efficient-aclcodec</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-cascom-http-mtp</t>
+  </si>
+  <si>
+    <t>jade-addon-xml-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-rdf-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-test-suite-framework</t>
+  </si>
+  <si>
+    <t>jade-addon-bechmark</t>
+  </si>
+  <si>
+    <t>jade-addon-jadeapplets</t>
+  </si>
+  <si>
+    <t>jade-addon-jsp-tag-library</t>
+  </si>
+  <si>
+    <t>jade-addon-jade2xback</t>
+  </si>
+  <si>
+    <t>jade-addon-wsig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-wsdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-miscellaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-dsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-semantics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-java-sniffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jade-addon-trusted-agents</t>
-  </si>
-  <si>
-    <t>jade-addon-ontology-beangenerator-</t>
-  </si>
-  <si>
-    <t>jade-addon-jadesharp</t>
-  </si>
-  <si>
-    <t>jade-addon-orbacus-mtp</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-xml-aclcodec</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-bit-efficient-aclcodec</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-cascom-http-mtp</t>
-  </si>
-  <si>
-    <t>jade-addon-xml-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-rdf-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-test-suite-framework</t>
-  </si>
-  <si>
-    <t>jade-addon-bechmark</t>
-  </si>
-  <si>
-    <t>jade-addon-jadeapplets</t>
-  </si>
-  <si>
-    <t>jade-addon-jsp-tag-library</t>
-  </si>
-  <si>
-    <t>jade-addon-jade2xback</t>
-  </si>
-  <si>
-    <t>jade-addon-wsig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-wsdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-miscellaneous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-dsc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-semantics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-java-sniffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-security</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2231,7 +2232,7 @@
         <v>134</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>152</v>
@@ -2268,7 +2269,7 @@
         <v>135</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>341</v>
@@ -2305,7 +2306,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>156</v>
@@ -2342,7 +2343,7 @@
         <v>344</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>157</v>
@@ -2377,7 +2378,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>158</v>
@@ -2414,7 +2415,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>160</v>
@@ -2451,7 +2452,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>162</v>
@@ -2486,7 +2487,7 @@
         <v>78</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>163</v>
@@ -2520,8 +2521,8 @@
       <c r="H13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>389</v>
+      <c r="I13" s="28" t="s">
+        <v>411</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>167</v>
@@ -2556,7 +2557,7 @@
         <v>86</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>166</v>
@@ -2591,7 +2592,7 @@
         <v>89</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>168</v>
@@ -2700,7 +2701,7 @@
         <v>140</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>174</v>
@@ -2737,7 +2738,7 @@
         <v>137</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>175</v>
@@ -2776,7 +2777,7 @@
         <v>138</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>177</v>
@@ -2813,7 +2814,7 @@
         <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>179</v>
@@ -2848,7 +2849,7 @@
         <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>180</v>
@@ -2883,7 +2884,7 @@
         <v>143</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>182</v>
@@ -2920,7 +2921,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>184</v>
@@ -2955,7 +2956,7 @@
         <v>144</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>185</v>
@@ -2990,7 +2991,7 @@
         <v>145</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>186</v>
@@ -3027,7 +3028,7 @@
         <v>146</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>189</v>
@@ -3064,7 +3065,7 @@
         <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>190</v>
@@ -3101,7 +3102,7 @@
         <v>129</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>192</v>

--- a/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
+++ b/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
@@ -37,7 +37,6 @@
     <definedName name="xmpp" localSheetId="2">'3rd Party'!$A$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1466,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1547,6 +1546,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1848,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2451,7 +2451,7 @@
       <c r="H11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="30" t="s">
         <v>409</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -2486,7 +2486,7 @@
       <c r="H12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="30" t="s">
         <v>410</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -2556,7 +2556,7 @@
       <c r="H14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="28" t="s">
         <v>389</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -2591,7 +2591,7 @@
       <c r="H15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="28" t="s">
         <v>390</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -2700,7 +2700,7 @@
       <c r="H18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="30" t="s">
         <v>391</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -2737,7 +2737,7 @@
       <c r="H19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="28" t="s">
         <v>392</v>
       </c>
       <c r="J19" s="6" t="s">

--- a/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
+++ b/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="17205" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17190" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JADE 4.0.1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <definedName name="xmpp" localSheetId="2">'3rd Party'!$A$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1259,72 +1260,74 @@
     <t>jade-addon-orbacus-mtp</t>
   </si>
   <si>
+    <t>jade-addon-fipa-bit-efficient-aclcodec</t>
+  </si>
+  <si>
+    <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-cascom-http-mtp</t>
+  </si>
+  <si>
+    <t>jade-addon-rdf-codec</t>
+  </si>
+  <si>
+    <t>jade-addon-test-suite-framework</t>
+  </si>
+  <si>
+    <t>jade-addon-bechmark</t>
+  </si>
+  <si>
+    <t>jade-addon-jadeapplets</t>
+  </si>
+  <si>
+    <t>jade-addon-jsp-tag-library</t>
+  </si>
+  <si>
+    <t>jade-addon-jade2xback</t>
+  </si>
+  <si>
+    <t>jade-addon-wsig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-wsdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-miscellaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-dsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-semantics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-java-sniffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-trusted-agents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-xml-codec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jade-addon-fipa-xml-aclcodec</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-bit-efficient-aclcodec</t>
-  </si>
-  <si>
-    <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-cascom-http-mtp</t>
-  </si>
-  <si>
-    <t>jade-addon-xml-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-rdf-codec</t>
-  </si>
-  <si>
-    <t>jade-addon-test-suite-framework</t>
-  </si>
-  <si>
-    <t>jade-addon-bechmark</t>
-  </si>
-  <si>
-    <t>jade-addon-jadeapplets</t>
-  </si>
-  <si>
-    <t>jade-addon-jsp-tag-library</t>
-  </si>
-  <si>
-    <t>jade-addon-jade2xback</t>
-  </si>
-  <si>
-    <t>jade-addon-wsig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-wsdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-miscellaneous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-dsc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-semantics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-java-sniffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-trusted-agents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1465,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1547,6 +1550,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1848,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2079,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2232,7 +2236,7 @@
         <v>134</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>152</v>
@@ -2269,7 +2273,7 @@
         <v>135</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>341</v>
@@ -2306,7 +2310,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>156</v>
@@ -2343,7 +2347,7 @@
         <v>344</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>157</v>
@@ -2378,7 +2382,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>158</v>
@@ -2415,7 +2419,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>160</v>
@@ -2452,7 +2456,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>162</v>
@@ -2487,7 +2491,7 @@
         <v>78</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>163</v>
@@ -2522,7 +2526,7 @@
         <v>82</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>167</v>
@@ -2737,8 +2741,8 @@
       <c r="H19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>392</v>
+      <c r="I19" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>175</v>
@@ -2777,7 +2781,7 @@
         <v>138</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>177</v>
@@ -2814,7 +2818,7 @@
         <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>179</v>
@@ -2849,7 +2853,7 @@
         <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>180</v>
@@ -2883,8 +2887,8 @@
       <c r="H23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>396</v>
+      <c r="I23" s="28" t="s">
+        <v>410</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>182</v>
@@ -2921,7 +2925,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>184</v>
@@ -2956,7 +2960,7 @@
         <v>144</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>185</v>
@@ -2991,7 +2995,7 @@
         <v>145</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>186</v>
@@ -3028,7 +3032,7 @@
         <v>146</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>189</v>
@@ -3065,7 +3069,7 @@
         <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>190</v>
@@ -3102,7 +3106,7 @@
         <v>129</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>192</v>

--- a/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
+++ b/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
@@ -37,7 +37,6 @@
     <definedName name="xmpp" localSheetId="2">'3rd Party'!$A$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1260,74 +1259,83 @@
     <t>jade-addon-orbacus-mtp</t>
   </si>
   <si>
+    <t>jade-addon-wsig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-wsdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-miscellaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-dsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-semantics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-java-sniffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-trusted-agents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-xml-codec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-addon-fipa-xml-aclcodec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jade-addon-fipa-bit-efficient-aclcodec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-fipa-bit-efficient-envelope-codec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-cascom-http-mtp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-rdf-codec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-test-suite-framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-bechmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-jadeapplets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-jsp-tag-library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jade-addon-jade2xback</t>
-  </si>
-  <si>
-    <t>jade-addon-wsig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-wsdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-miscellaneous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-dsc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-semantics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-java-sniffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-trusted-agents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-xml-codec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jade-addon-fipa-xml-aclcodec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1852,7 +1860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2083,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2236,7 +2244,7 @@
         <v>134</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>152</v>
@@ -2273,7 +2281,7 @@
         <v>135</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>341</v>
@@ -2310,7 +2318,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>156</v>
@@ -2347,7 +2355,7 @@
         <v>344</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>157</v>
@@ -2382,7 +2390,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>158</v>
@@ -2419,7 +2427,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>160</v>
@@ -2456,7 +2464,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>162</v>
@@ -2491,7 +2499,7 @@
         <v>78</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>163</v>
@@ -2526,7 +2534,7 @@
         <v>82</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>167</v>
@@ -2742,7 +2750,7 @@
         <v>137</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>175</v>
@@ -2781,7 +2789,7 @@
         <v>138</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>177</v>
@@ -2818,7 +2826,7 @@
         <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>179</v>
@@ -2853,7 +2861,7 @@
         <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>180</v>
@@ -2888,7 +2896,7 @@
         <v>143</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>182</v>
@@ -2925,7 +2933,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>184</v>
@@ -2960,7 +2968,7 @@
         <v>144</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>185</v>
@@ -2995,7 +3003,7 @@
         <v>145</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>186</v>
@@ -3032,7 +3040,7 @@
         <v>146</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>189</v>
@@ -3069,7 +3077,7 @@
         <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>190</v>
@@ -3106,7 +3114,7 @@
         <v>129</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>192</v>

--- a/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
+++ b/jade/trunk/jade-all-4.0.1-maven2/JADE-all-4.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="17190" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17190" windowHeight="9255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JADE 4.0.1" sheetId="1" r:id="rId1"/>
@@ -12,36 +12,37 @@
     <sheet name="3rd Party" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="aclanalyser" localSheetId="2">'3rd Party'!$A$57</definedName>
-    <definedName name="AgentOWL" localSheetId="2">'3rd Party'!$A$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3rd Party'!$A$1:$K$28</definedName>
+    <definedName name="aclanalyser" localSheetId="2">'3rd Party'!$C$20</definedName>
+    <definedName name="AgentOWL" localSheetId="2">'3rd Party'!$C$21</definedName>
     <definedName name="android" localSheetId="0">'JADE 4.0.1'!$B$32</definedName>
     <definedName name="applets" localSheetId="0">'JADE 4.0.1'!$B$65</definedName>
     <definedName name="ASCML" localSheetId="0">'JADE 4.0.1'!$B$39</definedName>
     <definedName name="benchmark" localSheetId="0">'JADE 4.0.1'!$B$63</definedName>
     <definedName name="DSC" localSheetId="0">'JADE 4.0.1'!$B$29</definedName>
-    <definedName name="jade4spring" localSheetId="2">'3rd Party'!$A$5</definedName>
-    <definedName name="JADEMX" localSheetId="2">'3rd Party'!$A$12</definedName>
-    <definedName name="JADEOWLCodec" localSheetId="2">'3rd Party'!$A$6</definedName>
-    <definedName name="jmsmtp" localSheetId="2">'3rd Party'!$A$44</definedName>
+    <definedName name="jade4spring" localSheetId="2">'3rd Party'!$C$5</definedName>
+    <definedName name="JADEMX" localSheetId="2">'3rd Party'!$C$9</definedName>
+    <definedName name="JADEOWLCodec" localSheetId="2">'3rd Party'!$C$6</definedName>
+    <definedName name="jmsmtp" localSheetId="2">'3rd Party'!$C$14</definedName>
     <definedName name="LEAP" localSheetId="0">'JADE 4.0.1'!$B$19</definedName>
-    <definedName name="Log4JADE" localSheetId="2">'3rd Party'!$A$8</definedName>
+    <definedName name="Log4JADE" localSheetId="2">'3rd Party'!$C$7</definedName>
     <definedName name="MISC" localSheetId="0">'JADE 4.0.1'!$B$27</definedName>
     <definedName name="OSGI" localSheetId="0">'JADE 4.0.1'!$B$21</definedName>
     <definedName name="semantics" localSheetId="0">'JADE 4.0.1'!$B$30</definedName>
-    <definedName name="servlet" localSheetId="2">'3rd Party'!$A$76</definedName>
+    <definedName name="servlet" localSheetId="2">'3rd Party'!$C$27</definedName>
     <definedName name="testSuite" localSheetId="0">'JADE 4.0.1'!$B$59</definedName>
-    <definedName name="Untraceability" localSheetId="2">'3rd Party'!$A$50</definedName>
+    <definedName name="Untraceability" localSheetId="2">'3rd Party'!$C$17</definedName>
     <definedName name="WSDC" localSheetId="0">'JADE 4.0.1'!$B$25</definedName>
     <definedName name="WSIG" localSheetId="0">'JADE 4.0.1'!$B$23</definedName>
     <definedName name="XMLCodec" localSheetId="0">'JADE 4.0.1'!$B$55</definedName>
-    <definedName name="xmpp" localSheetId="2">'3rd Party'!$A$47</definedName>
+    <definedName name="xmpp" localSheetId="2">'3rd Party'!$C$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="424">
   <si>
     <t>JADE</t>
   </si>
@@ -664,9 +665,6 @@
     <t>Inter-platform mobility</t>
   </si>
   <si>
-    <t>JADE 3.4</t>
-  </si>
-  <si>
     <t>Universita Autonoma de Barcelona</t>
   </si>
   <si>
@@ -688,9 +686,6 @@
     <t>Jade4Spring</t>
   </si>
   <si>
-    <t>JADE 3.5</t>
-  </si>
-  <si>
     <t>Jaran Nilsen (Integrasco A/S)</t>
   </si>
   <si>
@@ -718,18 +713,9 @@
     <t>The tool aims in debugging agent-based system supporting developers, who can be distributed across multiple locations, by letting them know what type of an error occurred and where it happened (together with extended localization info: agent's name, the host and the container where it resides and the team it belongs too). The proposed system was implemented on top of the JADE agent platform, and is based on a commonly-used Log4j library. Therefore it supports: browsing and filtering logs, dynamic attaching of logging service and normative agents, simplicity of use and rich configuration.</t>
   </si>
   <si>
-    <t>JadeX</t>
-  </si>
-  <si>
     <t>JADE 3.0b1</t>
   </si>
   <si>
-    <t>Alexander Pokahr,</t>
-  </si>
-  <si>
-    <t>Lars Braubach, Univ. Hamburg</t>
-  </si>
-  <si>
     <t>Jadex (JADE extension) is a rational agent layer on top of JADE that allows for the easy development of rational agents. Intelligent agents follow a modelling paradigm, based on the notion of agents with mental states. The Jadex system realizes these concepts following the well-known belief, desire, intention (BDI) model at the design and implementation layer.</t>
   </si>
   <si>
@@ -742,30 +728,6 @@
     <t>David Bernstein (Caboodle Networks)</t>
   </si>
   <si>
-    <t>jademx is an open source implementation of Java JMX access for</t>
-  </si>
-  <si>
-    <t>JADE software agents. This allows a JADE agent to expose</t>
-  </si>
-  <si>
-    <t>attributes, operations, and notifications in a JMX-compliant</t>
-  </si>
-  <si>
-    <t>manner as a DynamicMBean, as well as providing a convenient method</t>
-  </si>
-  <si>
-    <t>for deploying JADE agents (regardless of whether the JADE agents</t>
-  </si>
-  <si>
-    <t>are jademx-aware), particularly in a J2EE environment. Also,</t>
-  </si>
-  <si>
-    <t>jademx exposes predefined access to both the JADE platform and</t>
-  </si>
-  <si>
-    <t>agents. Tutorial</t>
-  </si>
-  <si>
     <t>BlueJade</t>
   </si>
   <si>
@@ -775,12 +737,6 @@
     <t>Dick Cowan</t>
   </si>
   <si>
-    <t>Anders Nygaard and Jaran Nilsen describe how to use BlueJADE with later versions of</t>
-  </si>
-  <si>
-    <t>JBoss and JADE (26/6/05). They also maintain a web site for this project.</t>
-  </si>
-  <si>
     <t>jmsagentgateway</t>
   </si>
   <si>
@@ -790,30 +746,9 @@
     <t>Edward Curry (ECRG, NUI, Galway)</t>
   </si>
   <si>
-    <t>Allows JADE agents to interact with a JMS provider using the FIPA Subscribe</t>
-  </si>
-  <si>
-    <t>Interaction Protocol. Using the gateway, agents are able to send/receive messages from</t>
-  </si>
-  <si>
-    <t>queues/topics within the point-to-point and publish/subscribe message models.</t>
-  </si>
-  <si>
-    <t>Public distribution</t>
-  </si>
-  <si>
-    <t>Install Tutorial</t>
-  </si>
-  <si>
     <t>beangenerator</t>
   </si>
   <si>
-    <t>JADE 2.5</t>
-  </si>
-  <si>
-    <t>Feb. 2002</t>
-  </si>
-  <si>
     <t>Chris van Aart</t>
   </si>
   <si>
@@ -826,51 +761,9 @@
     <t>JADE 3.2</t>
   </si>
   <si>
-    <t>Owen Cliffe</t>
-  </si>
-  <si>
-    <t>(this software was supported by the EuropeAid funded @lis-technet project)</t>
-  </si>
-  <si>
-    <t>The package allows agents on platforms which are:</t>
-  </si>
-  <si>
-    <t>To communicate with normal platforms in a transparent way to both the sender and the receiver.</t>
-  </si>
-  <si>
-    <t>The package works using an "access point" which consists of a Java Servlet running on a publicly available host (i.e. one outside the</t>
-  </si>
-  <si>
-    <t>firewall) which "wraps" a standard JADE MTP (such as the HTTP MTP).</t>
-  </si>
-  <si>
-    <t>The client platform then uses the fipa mailbox mtp to send and receive</t>
-  </si>
-  <si>
-    <t>(by polling the servlet) messages via the server which in turn uses</t>
-  </si>
-  <si>
-    <t>the wrapped MTP.</t>
-  </si>
-  <si>
-    <t>More details are available on the web page.</t>
-  </si>
-  <si>
     <t>JMSMTP</t>
   </si>
   <si>
-    <t>JADE 3.0b1 </t>
-  </si>
-  <si>
-    <t>Apr. 2003</t>
-  </si>
-  <si>
-    <t>MTP (Message Transport Protocol) implementation based on JMS (Java Messaging Service). </t>
-  </si>
-  <si>
-    <t>Interaction Tutorial</t>
-  </si>
-  <si>
     <t>xmpp</t>
   </si>
   <si>
@@ -889,39 +782,9 @@
     <t>Bernard-Joseph Roche</t>
   </si>
   <si>
-    <t>A small Java API that allows one-way communication to a FIPA compliant MAS.</t>
-  </si>
-  <si>
-    <t>(Note: see also the jade.wrapper package distributed with JADE)</t>
-  </si>
-  <si>
     <t>Untraceability I Add-on</t>
   </si>
   <si>
-    <t>Rafal Leszczyna</t>
-  </si>
-  <si>
-    <t>European Commission Joint Research Centre</t>
-  </si>
-  <si>
-    <t>The add-on has been developed at European Commission Joint Research Centre as a part of a PhD Project which aims at proposing security mechanisms for software agents.</t>
-  </si>
-  <si>
-    <t>Two untraceability protocols for mobile agents (a paper about the protocols is included into the package, see the file: untraceability.pdf) have been introduced. This add-on is an implementation of the first protocol. (This is the reason for the ‘I’ part in the name of the add-on).</t>
-  </si>
-  <si>
-    <t>The add-on is under the subversion repository of all JADE add-ons.</t>
-  </si>
-  <si>
-    <t>Hierarchical State Machine</t>
-  </si>
-  <si>
-    <t>University of California at</t>
-  </si>
-  <si>
-    <t>Santa Cruz and the University of Utah</t>
-  </si>
-  <si>
     <t>HSM extends the ideas of the JADE FSM. It provides a UML-based hierarchical state machine model of JADE Behaviour construction and execution. It also provides a grapical editing and simulation environment.</t>
   </si>
   <si>
@@ -937,21 +800,9 @@
     <t>Commercial License</t>
   </si>
   <si>
-    <t>JADE-FSM-Builder is a tool that allows developers to build the structure of a JADE agent starting from graphical description of a Finite State Machine (FSM). It has a graphical interface that allows developers to set up their own FSM simply adding and/or removing components and setting their properties; developers can add/edit/remove states and/or trigs on the design surface, associate code to a state simply inserting it in a textbox, set start and final state, just like an IDE.</t>
-  </si>
-  <si>
-    <t>More info</t>
-  </si>
-  <si>
     <t>ACLAnalyser</t>
   </si>
   <si>
-    <t>Alberto Lopez, Juan M. Hernansaez, Juan A. Botia and Antonio</t>
-  </si>
-  <si>
-    <t>G. Skarmeta (University of Murcia)</t>
-  </si>
-  <si>
     <t>The ACLAnalyser is a debugger tool which allows to browse through all the FIPA messages which have been exchanged between all the agents belonging to a JADE execution. You can debug the conversations between hundreds or thousands of agents, with different and useful views and stats.</t>
   </si>
   <si>
@@ -961,24 +812,6 @@
     <t>tested with JADE version 3.4 and Jena version 2.4</t>
   </si>
   <si>
-    <t>Michal Laclavik</t>
-  </si>
-  <si>
-    <t>PhD student at Institute of Informatics SAS, Bratislava, Slovak Republic.</t>
-  </si>
-  <si>
-    <t>Small library which allows JADE agent to use RDF/OWL Jena model for</t>
-  </si>
-  <si>
-    <t>agent memory and for inter-agent communication.</t>
-  </si>
-  <si>
-    <t>Includes example demo which show 2 agents communicating and sharing</t>
-  </si>
-  <si>
-    <t>knowledge.</t>
-  </si>
-  <si>
     <t>art0</t>
   </si>
   <si>
@@ -991,27 +824,6 @@
     <t>GNU General Public License</t>
   </si>
   <si>
-    <t>art0 is a creative-artistical environment simulator. This file contains a Windows installer.</t>
-  </si>
-  <si>
-    <t>For other distributions, just check this link This release of art0 uses Java 2 1.4.0. In addition to JADE, it uses iText, a PDF library written in JAVA.</t>
-  </si>
-  <si>
-    <t>Thanks to the JADE snapshot, the simulation doesn't hangs abruptly. Now you can add beings (agents) to the system in a one-by-one basis and you can order them to leave the system the same way. Some changes have been made in the interface trying to make it easier to use and understand.</t>
-  </si>
-  <si>
-    <t>Support for platform connectivity has been added at the level of connecting to diferent platform information (the APDescription.txt</t>
-  </si>
-  <si>
-    <t>files) and storing that information in JAVA variables and in the DF, but the use of that information is not implemented (artist and other kind of agents should be able to talk with agents from other platforms and even to move there. Also, the are different kinds of publishing services and a class "spreader" has been added.</t>
-  </si>
-  <si>
-    <t>The painter doesn't produce any artwork yet (that's work to do, I guess :) ). About any documentation.... umm, there is a tutorial in the web, and I'm still writing the manual. But the manual will be in Spanish. And my javadoc and readme.txt are a mixture of English and Spanish, too.</t>
-  </si>
-  <si>
-    <t>Anyway, I hope this helps people learning and using JADE and other agent systems.</t>
-  </si>
-  <si>
     <t xml:space="preserve">JessAgent </t>
   </si>
   <si>
@@ -1030,21 +842,9 @@
     <t>since JADE 3.1</t>
   </si>
   <si>
-    <t>Peep Küngas</t>
-  </si>
-  <si>
-    <t>Norwegian University of Science and Technology</t>
-  </si>
-  <si>
     <t>no licence</t>
   </si>
   <si>
-    <t>Short description: Implementation of agents, who apply symbolic negotiation for problem solving. Each agent is specified with an AI planning style specification language. If an agent is unable to solve its designated problem alone, symbolic negotiation with other agents is initiated. During symbolic negotiation agent collaboration conditions are declaratively decided. Generally it leads to distributed collaborative problem solving.</t>
-  </si>
-  <si>
-    <t>A tutorial is available at the software homepage.</t>
-  </si>
-  <si>
     <t>WSDL2Agent</t>
   </si>
   <si>
@@ -1063,33 +863,15 @@
     <t>Pavel used Doxygen to have better insight into sources of JADE: sources are included right in place and are partially browsable.</t>
   </si>
   <si>
-    <t>Linking a servlet to a JADE agent</t>
-  </si>
-  <si>
-    <t>SUPERSEDED by the JadeGateway class(3/03/2006)</t>
-  </si>
-  <si>
     <t>Fabien Gandon</t>
   </si>
   <si>
     <t>This tutorial gives an example of how one may link an agent and a servlet to allow Web Applications to be interfaced with a Multi-Agent System.</t>
   </si>
   <si>
-    <t>Running JADE over .NET and</t>
-  </si>
-  <si>
-    <t>.NET and JADE/LEAP</t>
-  </si>
-  <si>
-    <t>SUPERSEDED by the ant target dotnet in the LEAP add-on (1/8/2005)</t>
-  </si>
-  <si>
     <t>Usefull instructions about how to run JADE over .NET</t>
   </si>
   <si>
-    <t>This package enables the JADE (version 2.6) agent platform to be managed as a service under the JBoss (version 3.0) J2EE application server.</t>
-  </si>
-  <si>
     <t>DynamicClientAddOn-2.1.zip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,10 +889,6 @@
   </si>
   <si>
     <t>j2me 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jade.cselt.it/community-3rdpartysw.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1336,6 +1114,372 @@
   </si>
   <si>
     <t>jade-addon-jade2xback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jade.cselt.it/community-3rdpartysw.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www8.informatik.uni-erlangen.de/en/demosdownloads.html#jadeowlcodec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JADE 3.5
+Oct 2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JADEOWLCodec.zip</t>
+  </si>
+  <si>
+    <t>http://log4jade.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>Log4JADE-all-1.0.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JADE 3.4
+Jul 2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JadeX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Pokahr,
+Lars Braubach, Univ. Hamburg
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sourceforge.net/projects/jadex/</t>
+  </si>
+  <si>
+    <t>jadex-2.0-rc6.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jademx is an open source implementation of Java JMX access for
+JADE software agents. This allows a JADE agent to expose
+attributes, operations, and notifications in a JMX-compliant
+manner as a DynamicMBean, as well as providing a convenient method
+for deploying JADE agents (regardless of whether the JADE agents
+are jademx-aware), particularly in a J2EE environment. Also,
+jademx exposes predefined access to both the JADE platform and
+agents. Tutorial </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JADE 3.3
+Aug 2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jademx.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>jademx-0-4-1-242.jar</t>
+  </si>
+  <si>
+    <t>http://sourceforge.net/projects/bluejade/</t>
+  </si>
+  <si>
+    <t>bluejade-1.1.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This package enables the JADE (version 2.6) agent platform to be managed as a service under the JBoss (version 3.0) J2EE application server. 
+Anders Nygaard and Jaran Nilsen describe how to use BlueJADE with later versions of
+JBoss and JADE (26/6/05). They also maintain a web site for this project.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows JADE agents to interact with a JMS provider using the FIPA Subscribe 
+Interaction Protocol. Using the gateway, agents are able to send/receive messages from 
+queues/topics within the point-to-point and publish/subscribe message models.
+Public distribution
+Install Tutorial
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmsagentgateway-latest.zip</t>
+  </si>
+  <si>
+    <t>JADE 2.5
+Feb. 2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://protege.cim3.net/cgi-bin/wiki.pl?OntologyBeanGenerator</t>
+  </si>
+  <si>
+    <t>beangenerator_bin_Protege_3.2.1.zip
+abstractJadeOnt.zip
+beangenerator_examples.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The package allows agents on platforms which are:
+- behind firewalls
+- on devices with non-fixed IP addresses
+- moving between different networks
+- intermittently connected to the public internet
+To communicate with normal platforms in a transparent way to both the sender and the receiver. 
+The package works using an "access point" which consists of a Java Servlet running on a publicly available host (i.e. one outside the
+firewall) which "wraps" a standard JADE MTP (such as the HTTP MTP). 
+The client platform then uses the fipa mailbox mtp to send and receive 
+(by polling the servlet) messages via the server which in turn uses 
+the wrapped MTP.
+More details are available on the web page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Owen Cliffe
+(this software was supported by the EuropeAid funded @lis-technet project
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MTP (Message Transport Protocol) implementation based on JMS (Java Messaging Service). 
+Install Tutorial
+Interaction Tutorial
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JADE 3.0b1  
+Apr. 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmsmtp-latest.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A small Java API that allows one-way communication to a FIPA compliant MAS. 
+(Note: see also the jade.wrapper package distributed with JADE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://abits-fipa-mesg.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>ABITS_FIPA_Messenger.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The add-on has been developed at European Commission Joint Research Centre as a part of a PhD Project which aims at proposing security mechanisms for software agents.
+Two untraceability protocols for mobile agents (a paper about the protocols is included into the package, see the file: untraceability.pdf) have been introduced. This add-on is an implementation of the first protocol. (This is the reason for the ‘I’ part in the name of the add-on). 
+The add-on is under the subversion repository of all JADE add-ons.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hierarchical State Machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafal Leszczyna
+European Commission Joint Research Centre </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://avalon.cselt.it/svn/jade_add-ons/trunk/xmpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California at
+Santa Cruz and the University of Utaht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JADE-FSM-Builder is a tool that allows developers to build the structure of a JADE agent starting from graphical description of a Finite State Machine (FSM). It has a graphical interface that allows developers to set up their own FSM simply adding and/or removing components and setting their properties; developers can add/edit/remove states and/or trigs on the design surface, associate code to a state simply inserting it in a textbox, set start and final state, just like an IDE. More info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sicnet.it/jade-fsm-builder/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michal Laclavik
+PhD student at Institute of Informatics SAS, Bratislava, Slovak Republic. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACLAnalyser.zip</t>
+  </si>
+  <si>
+    <t>Small library which allows JADE agent to use RDF/OWL Jena model for 
+agent memory and for inter-agent communication.
+Includes example demo which show 2 agents communicating and sharing 
+knowledge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentOWL-1.0.zip</t>
+  </si>
+  <si>
+    <t>art0 is a creative-artistical environment simulator. This file contains a Windows installer.
+For other distributions, just check this link This release of art0 uses Java 2 1.4.0. In addition to JADE, it uses iText, a PDF library written in JAVA.
+Thanks to the JADE snapshot, the simulation doesn't hangs abruptly. Now you can add beings (agents) to the system in a one-by-one basis and you can order them to leave the system the same way. Some changes have been made in the interface trying to make it easier to use and understand.
+Support for platform connectivity has been added at the level of connecting to diferent platform information (the APDescription.txt 
+files) and storing that information in JAVA variables and in the DF, but the use of that information is not implemented (artist and other kind of agents should be able to talk with agents from other platforms and even to move there. Also, the are different kinds of publishing services and a class "spreader" has been added.
+The painter doesn't produce any artwork yet (that's work to do, I guess :) ). About any documentation.... umm, there is a tutorial in the web, and I'm still writing the manual. But the manual will be in Spanish. And my javadoc and readme.txt are a mixture of English and Spanish, too. 
+Anyway, I hope this helps people learning and using JADE and other agent systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sourceforge.net/projects/art0/</t>
+  </si>
+  <si>
+    <t>http://www.idi.ntnu.no/~peep/symbolic/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAPS-2.0.jar
+symbolic.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short description: Implementation of agents, who apply symbolic negotiation for problem solving. Each agent is specified with an AI planning style specification language. If an agent is unable to solve its designated problem alone, symbolic negotiation with other agents is initiated. During symbolic negotiation agent collaboration conditions are declaratively decided. Generally it leads to distributed collaborative problem solving.
+A tutorial is available at the software homepage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peep Küngas
+Norwegian University of Science and Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sas.ilab.sztaki.hu:8080/wsdl2agent/</t>
+  </si>
+  <si>
+    <t>jadewebservice.zip
+protegewebservice.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://agentowl.sourceforge.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://genetica.sourceforge.net/jadedoc/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://casal.upc.es/~marti23/JadeOverNET.shtml
+http://www.cs.utah.edu/arg/JADEDotNet.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inter-platform mobility</t>
+  </si>
+  <si>
+    <t>soap mtp</t>
+  </si>
+  <si>
+    <t>jade4spring</t>
+  </si>
+  <si>
+    <t>jadeowlcodec</t>
+  </si>
+  <si>
+    <t>log4jade</t>
+  </si>
+  <si>
+    <t>jadex</t>
+  </si>
+  <si>
+    <t>jademx</t>
+  </si>
+  <si>
+    <t>bluejade</t>
+  </si>
+  <si>
+    <t>jmsmtp</t>
+  </si>
+  <si>
+    <t>aclanalyser</t>
+  </si>
+  <si>
+    <t>agentowl</t>
+  </si>
+  <si>
+    <t>symbolic negotiation</t>
+  </si>
+  <si>
+    <t>wsdl2agent</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-jade4spring</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-jadeowlcodec</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-log4jade</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-jadex</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-jademx</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-bluejade</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-jmsagentgateway</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-beangenerator</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-jmsmtp</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-abits-fipa-mesg</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-aclanalyser</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-agentowl</t>
+  </si>
+  <si>
+    <t>jade-3rdparty-art0</t>
+  </si>
+  <si>
+    <t>- Martí Bayo Alemany (Yellowmap AG) 
+- University of Utah, Agent Research Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running JADE over .NET and
+.NET and JADE/LEAP
+SUPERSEDED by the ant target dotnet in the LEAP add-on (1/8/2005)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linking a servlet to a JADE agent
+SUPERSEDED by the JadeGateway class(3/03/2006)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-3rdparty-inter-platform-mobility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jade-3rdparty-soap-mtp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1398,20 +1542,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF003366"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="3"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="3"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF003366"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,6 +1622,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1476,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,9 +1677,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1511,13 +1688,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1556,9 +1726,75 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1863,33 +2099,33 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="17.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="17"/>
-    <col min="8" max="8" width="23.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="17.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="13"/>
+    <col min="8" max="8" width="23.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1898,12 +2134,12 @@
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1912,12 +2148,12 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1926,12 +2162,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1940,12 +2176,12 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1954,12 +2190,12 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1968,116 +2204,116 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2091,14 +2327,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1"/>
@@ -2145,270 +2381,270 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="str">
+      <c r="A3" s="25" t="str">
         <f>"jade-addon-"&amp;B3</f>
         <v>jade-addon-leap</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="str">
+      <c r="A4" s="25" t="str">
         <f t="shared" ref="A4:A29" si="0">"jade-addon-"&amp;B4</f>
         <v>jade-addon-osgi</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="str">
+      <c r="A5" s="25" t="str">
         <f>"jade-addon-"&amp;B5</f>
         <v>jade-addon-wsig</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="str">
+      <c r="A6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-wsdc</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="I6" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="str">
+      <c r="A7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-miscellaneous</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>40643</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="str">
+      <c r="A8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-dsc</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="str">
+      <c r="A9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-semantics</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="str">
+      <c r="A10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-android</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2426,8 +2662,8 @@
       <c r="H10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>397</v>
+      <c r="I10" s="24" t="s">
+        <v>323</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>160</v>
@@ -2438,14 +2674,14 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="str">
+      <c r="A11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-java-sniffer</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -2463,8 +2699,8 @@
       <c r="H11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>398</v>
+      <c r="I11" s="26" t="s">
+        <v>324</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>162</v>
@@ -2473,14 +2709,14 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="str">
+      <c r="A12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-security</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2498,8 +2734,8 @@
       <c r="H12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>399</v>
+      <c r="I12" s="26" t="s">
+        <v>325</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>163</v>
@@ -2508,14 +2744,14 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="str">
+      <c r="A13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-trusted-agents</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2533,8 +2769,8 @@
       <c r="H13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="28" t="s">
-        <v>400</v>
+      <c r="I13" s="24" t="s">
+        <v>326</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>167</v>
@@ -2543,14 +2779,14 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="str">
+      <c r="A14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-ontology-beangenerator-</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2568,8 +2804,8 @@
       <c r="H14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="28" t="s">
-        <v>389</v>
+      <c r="I14" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>166</v>
@@ -2578,14 +2814,14 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="str">
+      <c r="A15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-jadesharp</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2603,8 +2839,8 @@
       <c r="H15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="28" t="s">
-        <v>390</v>
+      <c r="I15" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>168</v>
@@ -2615,14 +2851,14 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="str">
+      <c r="A16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-persistence</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2640,8 +2876,8 @@
       <c r="H16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="28" t="s">
-        <v>358</v>
+      <c r="I16" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>170</v>
@@ -2650,14 +2886,14 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="str">
+      <c r="A17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-ascml</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2675,8 +2911,8 @@
       <c r="H17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>357</v>
+      <c r="I17" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>171</v>
@@ -2687,14 +2923,14 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="str">
+      <c r="A18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-orbacus-mtp</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2712,8 +2948,8 @@
       <c r="H18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>391</v>
+      <c r="I18" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>174</v>
@@ -2724,14 +2960,14 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="str">
+      <c r="A19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-fipa-xml-aclcodec</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2749,8 +2985,8 @@
       <c r="H19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="31" t="s">
-        <v>402</v>
+      <c r="I19" s="27" t="s">
+        <v>328</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>175</v>
@@ -2763,14 +2999,14 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="str">
+      <c r="A20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-fipa-bit-efficient-aclcodec</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -2789,7 +3025,7 @@
         <v>138</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>177</v>
@@ -2800,14 +3036,14 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="str">
+      <c r="A21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-fipa-bit-efficient-envelope-codec</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2826,7 +3062,7 @@
         <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>179</v>
@@ -2835,14 +3071,14 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="str">
+      <c r="A22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-cascom-http-mtp</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2861,7 +3097,7 @@
         <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>180</v>
@@ -2870,14 +3106,14 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="str">
+      <c r="A23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-xml-codec</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2895,8 +3131,8 @@
       <c r="H23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="28" t="s">
-        <v>401</v>
+      <c r="I23" s="24" t="s">
+        <v>327</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>182</v>
@@ -2907,14 +3143,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="str">
+      <c r="A24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-rdf-codec</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2933,7 +3169,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>184</v>
@@ -2942,14 +3178,14 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="str">
+      <c r="A25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-test-suite-framework</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2968,7 +3204,7 @@
         <v>144</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>185</v>
@@ -2977,14 +3213,14 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="str">
+      <c r="A26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-bechmark</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -3003,7 +3239,7 @@
         <v>145</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>408</v>
+        <v>334</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>186</v>
@@ -3014,14 +3250,14 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="str">
+      <c r="A27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-jadeapplets</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3040,7 +3276,7 @@
         <v>146</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>189</v>
@@ -3051,14 +3287,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="str">
+      <c r="A28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-jsp-tag-library</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -3077,7 +3313,7 @@
         <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>190</v>
@@ -3088,14 +3324,14 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="str">
+      <c r="A29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>jade-addon-jade2xback</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -3114,7 +3350,7 @@
         <v>129</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>192</v>
@@ -3133,1058 +3369,887 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="str">
+        <f>"jade-3rdparty-"&amp;B3</f>
+        <v>jade-3rdparty-inter-platform mobility</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="str">
+        <f t="shared" ref="A4:A25" si="0">"jade-3rdparty-"&amp;B4</f>
+        <v>jade-3rdparty-soap mtp</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-jade4spring</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-jadeowlcodec</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-log4jade</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-jadex</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="F8" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-jademx</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-bluejade</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="G10" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-jmsagentgateway</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-beangenerator</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="126.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:11" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-jmsmtp</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-abits-fipa-mesg</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="68.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" ht="29.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="48.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-aclanalyser</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-agentowl</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="175.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-art0</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-symbolic negotiation</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="39" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>jade-3rdparty-wsdl2agent</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="35.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8">
-        <v>40823</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="123.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="F25" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8">
-        <v>40730</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="E27" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8">
-        <v>40760</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8">
-        <v>40880</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="e">
-        <f>- behind firewalls</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="e">
-        <f>- on devices with non-fixed IP addresses</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="e">
-        <f>- moving between different networks</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="e">
-        <f>- intermittently connected to the public internet</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="G27" s="52" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
+      <c r="H27" s="35"/>
+      <c r="I27" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="52" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="157.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="7" t="e">
-        <f>- Martí Bayo Alemany (Yellowmap AG)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7" t="e">
-        <f>- University of Utah, Agent Research Group</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38" t="s">
+        <v>391</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K28">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="ABITS_FIPA_Messenger.zip"/>
+        <filter val="ACLAnalyser.zip"/>
+        <filter val="AgentOWL-1.0.zip"/>
+        <filter val="beangenerator_bin_Protege_3.2.1.zip_x000a_abstractJadeOnt.zip_x000a_beangenerator_examples.zip"/>
+        <filter val="bluejade-1.1.zip"/>
+        <filter val="ipms-1.2-jade-3.5.zip"/>
+        <filter val="jade4spring-1.1.1-src.tar.gz_x000a_jade4spring-1.1.1-bin.tar.gz_x000a_jade4spring-1.1.1-javadoc.jar"/>
+        <filter val="jademx-0-4-1-242.jar"/>
+        <filter val="JADEOWLCodec.zip"/>
+        <filter val="JadeSoapMTP_0.53.zip"/>
+        <filter val="jadewebservice.zip_x000a_protegewebservice.zip"/>
+        <filter val="jadex-2.0-rc6.zip"/>
+        <filter val="jmsagentgateway-latest.zip"/>
+        <filter val="jmsmtp-latest.zip"/>
+        <filter val="Log4JADE-all-1.0.zip"/>
+        <filter val="RAPS-2.0.jar_x000a_symbolic.jar"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
